--- a/testData/allTestData.xlsx
+++ b/testData/allTestData.xlsx
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testData/allTestData.xlsx
+++ b/testData/allTestData.xlsx
@@ -1780,29 +1780,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
